--- a/medicine/Enfance/Guéna_le_crocodile_(personnage)/Guéna_le_crocodile_(personnage).xlsx
+++ b/medicine/Enfance/Guéna_le_crocodile_(personnage)/Guéna_le_crocodile_(personnage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gu%C3%A9na_le_crocodile_(personnage)</t>
+          <t>Guéna_le_crocodile_(personnage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Crocodile Guéna (russe : Крокодил Гена, Krokodil Gena) est un personnage fictif, qui apparait dans la série de films d'animation Guéna le crocodile, Tchébourachka et Chapeauclaque par Roman Katchanov (Soyuzmultfilm studio). Il a fait ses débuts en 1966 dans le roman "Guéna le crocodile et ses amis" par Édouard Ouspenski.
 Le crocodile quinquagénaire Guéna travaille dans un zoo comme attraction. Durant son temps libre, il joue de l'accordéon et aime chanter. Deux de ses chansons les plus connues sont "Poust' bégout néouklujé..." ("Que les piétons courent maladroitement...") et "Golouboï vagon" ("Le wagon bleu"). Le nom du crocodile est un diminutif typique du nom masculin Guennadi.
